--- a/data/532/HKMA/Residential mortgage survey results.xlsx
+++ b/data/532/HKMA/Residential mortgage survey results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HKM" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,314 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
-  <si>
-    <t>end_of_month</t>
-  </si>
-  <si>
-    <t>outstanding_loans_amt</t>
-  </si>
-  <si>
-    <t>outstanding_loans_amt_mom</t>
-  </si>
-  <si>
-    <t>outstanding_loans_amt_yoy</t>
-  </si>
-  <si>
-    <t>outstanding_loans_cofin_gf_amt</t>
-  </si>
-  <si>
-    <t>outstanding_loans_cofin_gf</t>
-  </si>
-  <si>
-    <t>outstanding_loans_cofin_ps_amt</t>
-  </si>
-  <si>
-    <t>outstanding_loans_cofin_ps</t>
-  </si>
-  <si>
-    <t>delinquency_ratio</t>
-  </si>
-  <si>
-    <t>delinquency_ratio_6mth</t>
-  </si>
-  <si>
-    <t>resch_loan_ratio</t>
-  </si>
-  <si>
-    <t>new_loans_app_received</t>
-  </si>
-  <si>
-    <t>new_loans_app_received_mom</t>
-  </si>
-  <si>
-    <t>new_loans_drawn_amt</t>
-  </si>
-  <si>
-    <t>new_loans_drawn_amt_mom</t>
-  </si>
-  <si>
-    <t>new_loans_drawn</t>
-  </si>
-  <si>
-    <t>new_loans_drawn_mom</t>
-  </si>
-  <si>
-    <t>new_loans_approved_amt</t>
-  </si>
-  <si>
-    <t>new_loans_approved_amt_mom</t>
-  </si>
-  <si>
-    <t>new_loans_approved</t>
-  </si>
-  <si>
-    <t>new_loans_approved_mom</t>
-  </si>
-  <si>
-    <t>new_loans_approved_avg_size</t>
-  </si>
-  <si>
-    <t>new_loans_approved_lv_ratio</t>
-  </si>
-  <si>
-    <t>new_loans_approved_contra_life</t>
-  </si>
-  <si>
-    <t>new_loans_approved_cofin_amt</t>
-  </si>
-  <si>
-    <t>new_loans_approved_cofin</t>
-  </si>
-  <si>
-    <t>new_loans_approved_pt_amt_pri</t>
-  </si>
-  <si>
-    <t>new_loans_approved_pt_amt_sec</t>
-  </si>
-  <si>
-    <t>new_loans_approved_pt_amt_refin</t>
-  </si>
-  <si>
-    <t>new_loans_approved_pt_primkt</t>
-  </si>
-  <si>
-    <t>new_loans_approved_pt_secmkt</t>
-  </si>
-  <si>
-    <t>new_loans_approved_pt_refin</t>
-  </si>
-  <si>
-    <t>new_loans_approved_undrawn_amt</t>
-  </si>
-  <si>
-    <t>new_loans_approved_undrawn</t>
-  </si>
-  <si>
-    <t>ir_new_loans_approved_hibor</t>
-  </si>
-  <si>
-    <t>ir_new_loans_approved_blr</t>
-  </si>
-  <si>
-    <t>ir_new_loans_approved_fixed</t>
-  </si>
-  <si>
-    <t>ir_new_loans_approved_other</t>
-  </si>
-  <si>
-    <t>loan_wo_amt</t>
-  </si>
-  <si>
-    <t>loan_wo_12mth_amt</t>
-  </si>
-  <si>
-    <t>loan_wo_12mth_pa_outstand_loans</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO60"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,134 +366,218 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>end_of_month</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding_loans_amt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding_loans_amt_mom</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding_loans_amt_yoy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding_loans_cofin_gf_amt</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding_loans_cofin_gf</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding_loans_cofin_ps_amt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding_loans_cofin_ps</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>delinquency_ratio</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>delinquency_ratio_6mth</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>resch_loan_ratio</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_app_received</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_app_received_mom</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_drawn_amt</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_drawn_amt_mom</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_drawn</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_drawn_mom</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_amt</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_amt_mom</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_mom</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_avg_size</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_lv_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_contra_life</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_cofin_amt</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_cofin</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_pt_amt_pri</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_pt_amt_sec</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_pt_amt_refin</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_pt_primkt</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_pt_secmkt</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_pt_refin</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_undrawn_amt</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>new_loans_approved_undrawn</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ir_new_loans_approved_hibor</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ir_new_loans_approved_blr</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ir_new_loans_approved_fixed</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>ir_new_loans_approved_other</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>loan_wo_amt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>loan_wo_12mth_amt</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>loan_wo_12mth_pa_outstand_loans</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:41">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1118657</v>
@@ -920,13 +696,17 @@
       <c r="AN2" t="n">
         <v>1</v>
       </c>
-      <c r="AO2" t="s">
-        <v>42</v>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1140803</v>
@@ -1045,13 +825,17 @@
       <c r="AN3" t="n">
         <v>1</v>
       </c>
-      <c r="AO3" t="s">
-        <v>42</v>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1145817</v>
@@ -1170,13 +954,17 @@
       <c r="AN4" t="n">
         <v>1</v>
       </c>
-      <c r="AO4" t="s">
-        <v>42</v>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>1152273</v>
@@ -1295,13 +1083,17 @@
       <c r="AN5" t="n">
         <v>1</v>
       </c>
-      <c r="AO5" t="s">
-        <v>42</v>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1156868</v>
@@ -1420,13 +1212,17 @@
       <c r="AN6" t="n">
         <v>1</v>
       </c>
-      <c r="AO6" t="s">
-        <v>42</v>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1166034</v>
@@ -1545,13 +1341,17 @@
       <c r="AN7" t="n">
         <v>1</v>
       </c>
-      <c r="AO7" t="s">
-        <v>42</v>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>1176809</v>
@@ -1670,13 +1470,17 @@
       <c r="AN8" t="n">
         <v>1</v>
       </c>
-      <c r="AO8" t="s">
-        <v>42</v>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:41">
-      <c r="A9" s="1" t="s">
-        <v>49</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1188268</v>
@@ -1795,13 +1599,17 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="s">
-        <v>42</v>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:41">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>1194880</v>
@@ -1920,13 +1728,17 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="s">
-        <v>42</v>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:41">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>1204104</v>
@@ -2045,13 +1857,17 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="s">
-        <v>42</v>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:41">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1207680</v>
@@ -2170,13 +1986,17 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="s">
-        <v>42</v>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:41">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1216822</v>
@@ -2295,13 +2115,17 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="s">
-        <v>42</v>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="14" spans="1:41">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>1223807</v>
@@ -2420,13 +2244,17 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="s">
-        <v>42</v>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="15" spans="1:41">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1232065</v>
@@ -2545,13 +2373,17 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="s">
-        <v>42</v>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="16" spans="1:41">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1237078</v>
@@ -2670,13 +2502,17 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="s">
-        <v>42</v>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="17" spans="1:41">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>1247454</v>
@@ -2795,13 +2631,17 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="s">
-        <v>42</v>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="18" spans="1:41">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>1256198</v>
@@ -2920,13 +2760,17 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="s">
-        <v>42</v>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="19" spans="1:41">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1267264</v>
@@ -3045,13 +2889,17 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="s">
-        <v>42</v>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="20" spans="1:41">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1280184</v>
@@ -3170,13 +3018,17 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="s">
-        <v>42</v>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="21" spans="1:41">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>1290403</v>
@@ -3295,13 +3147,17 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="s">
-        <v>42</v>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="22" spans="1:41">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1301441</v>
@@ -3420,13 +3276,17 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="s">
-        <v>42</v>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="23" spans="1:41">
-      <c r="A23" s="1" t="s">
-        <v>63</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>1314442</v>
@@ -3545,13 +3405,17 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="s">
-        <v>42</v>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="24" spans="1:41">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1323736</v>
@@ -3670,13 +3534,17 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="s">
-        <v>42</v>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="25" spans="1:41">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>1330949</v>
@@ -3795,13 +3663,17 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="s">
-        <v>42</v>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="26" spans="1:41">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>1337093</v>
@@ -3920,13 +3792,17 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="s">
-        <v>42</v>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="27" spans="1:41">
-      <c r="A27" s="1" t="s">
-        <v>67</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>1351143</v>
@@ -4045,13 +3921,17 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="s">
-        <v>42</v>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="28" spans="1:41">
-      <c r="A28" s="1" t="s">
-        <v>68</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>1354541</v>
@@ -4170,13 +4050,17 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="s">
-        <v>42</v>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="29" spans="1:41">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>1358888</v>
@@ -4295,13 +4179,17 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="s">
-        <v>42</v>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="30" spans="1:41">
-      <c r="A30" s="1" t="s">
-        <v>70</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>1363952</v>
@@ -4420,13 +4308,17 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="s">
-        <v>42</v>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="31" spans="1:41">
-      <c r="A31" s="1" t="s">
-        <v>71</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1378019</v>
@@ -4545,13 +4437,17 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="s">
-        <v>42</v>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="32" spans="1:41">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>1397188</v>
@@ -4670,13 +4566,17 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="s">
-        <v>42</v>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="33" spans="1:41">
-      <c r="A33" s="1" t="s">
-        <v>73</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>1415971</v>
@@ -4795,13 +4695,17 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="s">
-        <v>42</v>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="34" spans="1:41">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>1431020</v>
@@ -4920,13 +4824,17 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="s">
-        <v>42</v>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="35" spans="1:41">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>1444006</v>
@@ -5045,13 +4953,17 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="s">
-        <v>42</v>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="36" spans="1:41">
-      <c r="A36" s="1" t="s">
-        <v>76</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>1453151</v>
@@ -5170,13 +5082,17 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="s">
-        <v>42</v>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="37" spans="1:41">
-      <c r="A37" s="1" t="s">
-        <v>77</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>1460460</v>
@@ -5295,13 +5211,17 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="s">
-        <v>42</v>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="38" spans="1:41">
-      <c r="A38" s="1" t="s">
-        <v>78</v>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>1467988</v>
@@ -5420,13 +5340,17 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="s">
-        <v>42</v>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="39" spans="1:41">
-      <c r="A39" s="1" t="s">
-        <v>79</v>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>1477738</v>
@@ -5545,13 +5469,17 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="s">
-        <v>42</v>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="40" spans="1:41">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>1484034</v>
@@ -5670,13 +5598,17 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="s">
-        <v>42</v>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="41" spans="1:41">
-      <c r="A41" s="1" t="s">
-        <v>81</v>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>1491368</v>
@@ -5795,13 +5727,17 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="s">
-        <v>42</v>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="42" spans="1:41">
-      <c r="A42" s="1" t="s">
-        <v>82</v>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>1495715</v>
@@ -5920,13 +5856,17 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="s">
-        <v>42</v>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="43" spans="1:41">
-      <c r="A43" s="1" t="s">
-        <v>83</v>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>1505237</v>
@@ -6045,13 +5985,17 @@
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="s">
-        <v>42</v>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="44" spans="1:41">
-      <c r="A44" s="1" t="s">
-        <v>84</v>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>1517997</v>
@@ -6170,13 +6114,17 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="s">
-        <v>42</v>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="45" spans="1:41">
-      <c r="A45" s="1" t="s">
-        <v>85</v>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>1531044</v>
@@ -6295,13 +6243,17 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO45" t="s">
-        <v>42</v>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="46" spans="1:41">
-      <c r="A46" s="1" t="s">
-        <v>86</v>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>1544172</v>
@@ -6420,13 +6372,17 @@
       <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" t="s">
-        <v>42</v>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="47" spans="1:41">
-      <c r="A47" s="1" t="s">
-        <v>87</v>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>1555988</v>
@@ -6545,13 +6501,17 @@
       <c r="AN47" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" t="s">
-        <v>42</v>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="48" spans="1:41">
-      <c r="A48" s="1" t="s">
-        <v>88</v>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>1562556</v>
@@ -6670,13 +6630,17 @@
       <c r="AN48" t="n">
         <v>0</v>
       </c>
-      <c r="AO48" t="s">
-        <v>42</v>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="49" spans="1:41">
-      <c r="A49" s="1" t="s">
-        <v>89</v>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>1572470</v>
@@ -6795,13 +6759,17 @@
       <c r="AN49" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="s">
-        <v>42</v>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="50" spans="1:41">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>1582128</v>
@@ -6920,13 +6888,17 @@
       <c r="AN50" t="n">
         <v>0</v>
       </c>
-      <c r="AO50" t="s">
-        <v>42</v>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="51" spans="1:41">
-      <c r="A51" s="1" t="s">
-        <v>91</v>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>1590926</v>
@@ -7045,13 +7017,17 @@
       <c r="AN51" t="n">
         <v>0</v>
       </c>
-      <c r="AO51" t="s">
-        <v>42</v>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="52" spans="1:41">
-      <c r="A52" s="1" t="s">
-        <v>92</v>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>1595923</v>
@@ -7170,13 +7146,17 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" t="s">
-        <v>42</v>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="53" spans="1:41">
-      <c r="A53" s="1" t="s">
-        <v>93</v>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>1605305</v>
@@ -7295,13 +7275,17 @@
       <c r="AN53" t="n">
         <v>0</v>
       </c>
-      <c r="AO53" t="s">
-        <v>42</v>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="54" spans="1:41">
-      <c r="A54" s="1" t="s">
-        <v>94</v>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>1616436</v>
@@ -7420,13 +7404,17 @@
       <c r="AN54" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" t="s">
-        <v>42</v>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="55" spans="1:41">
-      <c r="A55" s="1" t="s">
-        <v>95</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>1631910</v>
@@ -7545,13 +7533,17 @@
       <c r="AN55" t="n">
         <v>0</v>
       </c>
-      <c r="AO55" t="s">
-        <v>42</v>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="56" spans="1:41">
-      <c r="A56" s="1" t="s">
-        <v>96</v>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>1648588</v>
@@ -7670,13 +7662,17 @@
       <c r="AN56" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="s">
-        <v>42</v>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="57" spans="1:41">
-      <c r="A57" s="1" t="s">
-        <v>97</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>1663765</v>
@@ -7795,13 +7791,17 @@
       <c r="AN57" t="n">
         <v>0</v>
       </c>
-      <c r="AO57" t="s">
-        <v>42</v>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="58" spans="1:41">
-      <c r="A58" s="1" t="s">
-        <v>98</v>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>1679784</v>
@@ -7920,13 +7920,17 @@
       <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO58" t="s">
-        <v>42</v>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="59" spans="1:41">
-      <c r="A59" s="1" t="s">
-        <v>99</v>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>1696982</v>
@@ -8045,13 +8049,17 @@
       <c r="AN59" t="n">
         <v>0</v>
       </c>
-      <c r="AO59" t="s">
-        <v>42</v>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
-    <row r="60" spans="1:41">
-      <c r="A60" s="1" t="s">
-        <v>100</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>1707621</v>
@@ -8170,8 +8178,397 @@
       <c r="AN60" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" t="s">
-        <v>42</v>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1719948</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3041</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3009</v>
+      </c>
+      <c r="G61" t="n">
+        <v>27081</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6030</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>12828</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="N61" t="n">
+        <v>33379</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6688</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="R61" t="n">
+        <v>51365</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="T61" t="n">
+        <v>10122</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="V61" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="W61" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="X61" t="n">
+        <v>333</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>953</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>14040</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>26079</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>11246</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>2476</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>5148</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>2498</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>46470</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>9144</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.009000000000000001</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1736412</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3047</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2929</v>
+      </c>
+      <c r="G62" t="n">
+        <v>27821</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6089</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>10810</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.157</v>
+      </c>
+      <c r="N62" t="n">
+        <v>36311</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="P62" t="n">
+        <v>7091</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R62" t="n">
+        <v>44319</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="T62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-0.111</v>
+      </c>
+      <c r="V62" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="W62" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="X62" t="n">
+        <v>329</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>498</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8840</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>24719</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>10760</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>4923</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>2407</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>39228</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>7957</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1746841</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3034</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2877</v>
+      </c>
+      <c r="G63" t="n">
+        <v>27349</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5973</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>10501</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="N63" t="n">
+        <v>31343</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="P63" t="n">
+        <v>6534</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="R63" t="n">
+        <v>42240</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="T63" t="n">
+        <v>8607</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="V63" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="W63" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="X63" t="n">
+        <v>331</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>367</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6979</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>23999</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>11262</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>4793</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>2514</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>37753</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>7625</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/532/HKMA/Residential mortgage survey results.xlsx
+++ b/data/532/HKMA/Residential mortgage survey results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,6 +8571,135 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1754332</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3006</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2817</v>
+      </c>
+      <c r="G64" t="n">
+        <v>27032</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5893</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6592</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.372</v>
+      </c>
+      <c r="N64" t="n">
+        <v>23958</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5044</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.228</v>
+      </c>
+      <c r="R64" t="n">
+        <v>26328</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.377</v>
+      </c>
+      <c r="T64" t="n">
+        <v>5274</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.387</v>
+      </c>
+      <c r="V64" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="W64" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="X64" t="n">
+        <v>330</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>241</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>4475</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>14928</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>6924</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>770</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2964</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1540</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>24075</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>4819</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
